--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3726326.191103722</v>
+        <v>3829737.927067804</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7447399.270756121</v>
+        <v>7412369.549483364</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>12.8760616042102</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>226.6018723739763</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>67.60666166344782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>75.40931268540193</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>18.88595192024801</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>215.7030122770223</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,10 +952,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>67.0638231912594</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>255.2022131484768</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1190,10 +1192,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>23.79925355567548</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487896</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>213.9308982277093</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457615</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1528,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>207.8693512020452</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1765,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>145.6718493954796</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.18584932336077</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>89.43437620021338</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,19 +2323,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206841</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>119.2889395926984</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>251.5502284017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>141.8888082957385</v>
       </c>
       <c r="G28" t="n">
-        <v>95.05806357631906</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898977</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>47.84205650382022</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652447</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.741638509605</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317884</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445514</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3080,7 +3082,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>112.6849016609952</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>24.27150084979086</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808338</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>5.943178786504641</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>27.68426743653215</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.9962538432431</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>1274.539111149742</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>905.5765942093301</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>905.5765942093301</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>905.5765942093301</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>494.5906894197225</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>79.518239264719</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>79.518239264719</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2780.446625344754</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.383738001183</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.383738001183</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="X2" t="n">
-        <v>2075.917979740103</v>
+        <v>2051.278283189675</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2094.475287190081</v>
+        <v>920.3423867623645</v>
       </c>
       <c r="C4" t="n">
-        <v>2026.185729954275</v>
+        <v>751.4062038344576</v>
       </c>
       <c r="D4" t="n">
-        <v>1876.069090541939</v>
+        <v>751.4062038344576</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.069090541939</v>
+        <v>603.4931102520645</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>456.6031627541541</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>288.9003261288731</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>142.6831393467309</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936224</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>2724.905882061868</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>2724.905882061868</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>2724.905882061868</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X4" t="n">
-        <v>2496.91633116385</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="Y4" t="n">
-        <v>2276.12375202032</v>
+        <v>1101.990851592604</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1896.503151925171</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C5" t="n">
-        <v>1896.503151925171</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1538.237453318421</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.449200720177</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>741.4632959305691</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>326.3908457755655</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989293</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989293</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622424</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343355</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
         <v>380.4321398396066</v>
@@ -4717,10 +4719,10 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1477.828650634029</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X7" t="n">
-        <v>1249.839099736012</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.046520592482</v>
+        <v>914.1161452244863</v>
       </c>
     </row>
     <row r="8">
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1175.001902075335</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>954.2093229318045</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5020,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5415,19 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5504,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,25 +5518,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>3093.254426444652</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>2924.318243516745</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>2774.20160410441</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>3495.695470418422</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>3274.902891274892</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5743,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3568999154069</v>
+        <v>1051.964939354869</v>
       </c>
       <c r="C22" t="n">
-        <v>878.3568999154069</v>
+        <v>883.0287564269624</v>
       </c>
       <c r="D22" t="n">
-        <v>728.2402605030711</v>
+        <v>732.9121170146267</v>
       </c>
       <c r="E22" t="n">
-        <v>580.327166920678</v>
+        <v>584.9990234322336</v>
       </c>
       <c r="F22" t="n">
-        <v>433.4372194227676</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>266.2411201376476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,28 +5977,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,34 +6007,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683104</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3047.734188001556</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>2878.798005073649</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>2728.681365661314</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661314</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328842</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.25592267304</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3678.164782873343</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3678.164782873343</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X25" t="n">
-        <v>3450.175231975326</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y25" t="n">
-        <v>3229.382652831796</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,52 +6214,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190824</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3189.272672481339</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C28" t="n">
-        <v>3020.336489553432</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D28" t="n">
-        <v>2870.219850141097</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="E28" t="n">
-        <v>2722.306756558703</v>
+        <v>486.4214942667323</v>
       </c>
       <c r="F28" t="n">
-        <v>2575.416809060793</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024107</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421536</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765734</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559847</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522886</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624869</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481339</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656809</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150014</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942644</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580103</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345464</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384006</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6697,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6728,10 +6730,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>1888.077129657224</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2311.700279152293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>584.529540471266</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>436.6164468888729</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>289.7264993909625</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6947,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438171</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>954.2476448606607</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1135.8961096909</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7184,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931272</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="44">
@@ -7640,43 +7642,43 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7685,10 +7687,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615996</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X46" t="n">
-        <v>1394.184733704551</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>44.26829212178279</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>80.03780599355755</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>46.23519869957047</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>50.86033664601051</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>60.54304058923888</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5874149221280049</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.532239727192746</v>
       </c>
       <c r="G28" t="n">
-        <v>70.46607471594979</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>100.7734165143921</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.428190898877801e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>52.83923663127362</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>142.975320248837</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>246.1944645373234</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>152.1477127454052</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.58839950885167</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649116.1949100783</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649116.1949100783</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649116.1949100783</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649116.1949100783</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>649116.1949100783</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176759</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176756</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176755</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176763</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.725617676</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977561</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.261029771332436e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972778</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363169</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8.526512829121202e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319391</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319408</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184283</v>
+      </c>
+      <c r="F4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
@@ -26436,28 +26438,28 @@
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184267</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="K4" t="n">
-        <v>21597.66737493618</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21597.66737493615</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21597.66737493621</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21597.66737493627</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21597.66737493627</v>
-      </c>
       <c r="P4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-728956.8035545044</v>
       </c>
       <c r="C6" t="n">
-        <v>599787.9421730881</v>
+        <v>599787.9421730887</v>
       </c>
       <c r="D6" t="n">
-        <v>599787.9421730884</v>
+        <v>599787.9421730886</v>
       </c>
       <c r="E6" t="n">
-        <v>346826.1349546509</v>
+        <v>346826.1349546507</v>
       </c>
       <c r="F6" t="n">
-        <v>672238.5967620064</v>
+        <v>672238.5967620062</v>
       </c>
       <c r="G6" t="n">
-        <v>672238.5967620059</v>
+        <v>672238.5967620062</v>
       </c>
       <c r="H6" t="n">
         <v>672238.5967620059</v>
       </c>
       <c r="I6" t="n">
+        <v>672238.5967620059</v>
+      </c>
+      <c r="J6" t="n">
+        <v>454707.3943647282</v>
+      </c>
+      <c r="K6" t="n">
+        <v>672238.5967620059</v>
+      </c>
+      <c r="L6" t="n">
+        <v>672238.5967620059</v>
+      </c>
+      <c r="M6" t="n">
+        <v>587183.5688264939</v>
+      </c>
+      <c r="N6" t="n">
         <v>672238.5967620057</v>
       </c>
-      <c r="J6" t="n">
-        <v>454707.3943647284</v>
-      </c>
-      <c r="K6" t="n">
-        <v>656326.2243951936</v>
-      </c>
-      <c r="L6" t="n">
-        <v>675753.9423888247</v>
-      </c>
-      <c r="M6" t="n">
-        <v>590698.9144533128</v>
-      </c>
-      <c r="N6" t="n">
-        <v>675753.9423888254</v>
-      </c>
       <c r="O6" t="n">
-        <v>675753.9423888254</v>
+        <v>672238.5967620062</v>
       </c>
       <c r="P6" t="n">
-        <v>672238.5967620062</v>
+        <v>672238.5967620059</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,22 +26712,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,19 +26931,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.631541210371731e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.631541210371731e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>28.70086816871567</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>24.39329958492567</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>99.64015943518001</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>20.94310772443613</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>346.3869398507595</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>78.90475211029812</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>112.7681569906779</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>31.3207851881142</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>303.9530049144607</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27910,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>325.4417151617375</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>83.32522828944182</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.77875716132786</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.092834328777952e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.125176273991859e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29095,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29104,7 +29106,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-5.631541210371731e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29800,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.473903143468003e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31835,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>182.7118610708585</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,10 +31849,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,31 +32077,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32551,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>361.5531172119654</v>
       </c>
       <c r="N21" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>302.9675447508045</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,22 +33025,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>616.5397119226052</v>
+        <v>384.4721492652006</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214699</v>
@@ -33260,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33497,19 +33499,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>453.7122424932249</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>346.7710205055862</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236508</v>
@@ -33731,25 +33733,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>579.5299594447131</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N39" t="n">
-        <v>578.1083652167725</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>55.87423440419181</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,10 +35497,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="N21" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>160.8335108287862</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>477.985332142731</v>
+        <v>245.9177694853264</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071396</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>322.3705304098916</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>206.7892464195647</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N39" t="n">
-        <v>446.7666531334392</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902399</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3829737.927067804</v>
+        <v>3825725.317053812</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>12.8760616042102</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>84.2225297323299</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>104.1375486291684</v>
       </c>
       <c r="I4" t="n">
-        <v>75.40931268540193</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>18.88595192024801</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>122.7433563196737</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.0638231912594</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.78083674901981</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>193.2852664785254</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>213.9308982277093</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457615</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784715</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856562</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>172.0260335000767</v>
       </c>
       <c r="V13" t="n">
-        <v>207.8693512020452</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712597</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716112</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>145.6718493954796</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>99.18584932336077</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.2889395926984</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881292</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>141.8888082957385</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D31" t="n">
-        <v>47.84205650382022</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018841</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>112.6849016609952</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>24.27150084979086</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>121.8000472740352</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>5.943178786504641</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.68426743653215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1274.539111149742</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C2" t="n">
-        <v>905.5765942093301</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>905.5765942093301</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>905.5765942093301</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>494.5906894197225</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>79.518239264719</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>79.518239264719</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3240.532559253283</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2987.002082527119</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2655.939195183548</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450755</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189675</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213863</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.3423867623645</v>
+        <v>953.2602595377767</v>
       </c>
       <c r="C4" t="n">
-        <v>751.4062038344576</v>
+        <v>784.3240766098698</v>
       </c>
       <c r="D4" t="n">
-        <v>751.4062038344576</v>
+        <v>634.2074371975341</v>
       </c>
       <c r="E4" t="n">
-        <v>603.4931102520645</v>
+        <v>486.294343615141</v>
       </c>
       <c r="F4" t="n">
-        <v>456.6031627541541</v>
+        <v>339.4043961172306</v>
       </c>
       <c r="G4" t="n">
-        <v>288.9003261288731</v>
+        <v>171.7015594919496</v>
       </c>
       <c r="H4" t="n">
-        <v>142.6831393467309</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.990851592604</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X4" t="n">
-        <v>1101.990851592604</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y4" t="n">
-        <v>1101.990851592604</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855438</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777597</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.908724368016</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>914.1161452244863</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>601.3302584915489</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450753</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W10" t="n">
-        <v>1391.09371846696</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X10" t="n">
-        <v>1175.001902075335</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.2093229318045</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="11">
@@ -5029,58 +5029,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355941</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>150.8995423128889</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.644273983533</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356202</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232843</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408911</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429806</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378163</v>
       </c>
       <c r="V13" t="n">
-        <v>1767.492038892281</v>
+        <v>2018.514925172276</v>
       </c>
       <c r="W13" t="n">
-        <v>1478.07486885532</v>
+        <v>1729.097755135315</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.085317957303</v>
+        <v>1501.108204237297</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>1280.315625093767</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,31 +5290,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>282.8695714929399</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>135.9796239950296</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5506,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3093.254426444652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>2924.318243516745</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>2774.20160410441</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>2626.288510522017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3495.695470418422</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3274.902891274892</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1051.964939354869</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>883.0287564269624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>732.9121170146267</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>584.9990234322336</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>120.680066384834</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,28 +6226,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491255</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>634.3345878491255</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>486.4214942667323</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.309241249041</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,52 +6688,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C34" t="n">
-        <v>734.6461798836018</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D34" t="n">
-        <v>584.529540471266</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E34" t="n">
-        <v>436.6164468888729</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="F34" t="n">
-        <v>289.7264993909625</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270426</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6928,34 +6928,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>954.2476448606607</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>390.823249958218</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458822</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5348780504994</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V43" t="n">
-        <v>1682.382642959247</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W43" t="n">
-        <v>1392.965472922287</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X43" t="n">
-        <v>1164.975922024269</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y43" t="n">
-        <v>944.1833428807391</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012176</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891675</v>
       </c>
       <c r="V13" t="n">
-        <v>44.26829212178279</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.11969353038485</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>80.03780599355755</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>46.23519869957047</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.54304058923888</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3.532239727192746</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>100.7734165143921</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194399</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>52.83923663127362</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.229103921944</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.975320248837</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>45.44677382459267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.4141550350969</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>246.1944645373234</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.1477127454052</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>638347.4380250133</v>
+        <v>638347.4380250134</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638347.4380250133</v>
+        <v>638347.4380250134</v>
       </c>
     </row>
     <row r="11">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="G2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
@@ -26343,19 +26343,19 @@
         <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="M2" t="n">
-        <v>786967.9346977555</v>
-      </c>
       <c r="N2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972778</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355121</v>
       </c>
       <c r="N3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319391</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184283</v>
+        <v>13606.80811184256</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
@@ -26441,25 +26441,25 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728956.8035545044</v>
+        <v>-728956.8035545042</v>
       </c>
       <c r="C6" t="n">
         <v>599787.9421730887</v>
       </c>
       <c r="D6" t="n">
-        <v>599787.9421730886</v>
+        <v>599787.9421730887</v>
       </c>
       <c r="E6" t="n">
-        <v>346826.1349546507</v>
+        <v>346478.755700294</v>
       </c>
       <c r="F6" t="n">
-        <v>672238.5967620062</v>
+        <v>671891.217507649</v>
       </c>
       <c r="G6" t="n">
-        <v>672238.5967620062</v>
+        <v>671891.2175076497</v>
       </c>
       <c r="H6" t="n">
-        <v>672238.5967620059</v>
+        <v>671891.2175076489</v>
       </c>
       <c r="I6" t="n">
-        <v>672238.5967620059</v>
+        <v>671891.217507649</v>
       </c>
       <c r="J6" t="n">
-        <v>454707.3943647282</v>
+        <v>454360.0151103716</v>
       </c>
       <c r="K6" t="n">
-        <v>672238.5967620059</v>
+        <v>671891.2175076491</v>
       </c>
       <c r="L6" t="n">
-        <v>672238.5967620059</v>
+        <v>671891.2175076491</v>
       </c>
       <c r="M6" t="n">
-        <v>587183.5688264939</v>
+        <v>586836.1895721368</v>
       </c>
       <c r="N6" t="n">
-        <v>672238.5967620057</v>
+        <v>671891.2175076493</v>
       </c>
       <c r="O6" t="n">
-        <v>672238.5967620062</v>
+        <v>671891.2175076491</v>
       </c>
       <c r="P6" t="n">
-        <v>672238.5967620059</v>
+        <v>671891.2175076491</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.171461559822822e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,10 +26940,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.171461559822822e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.171461559822822e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28.70086816871567</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>119.6954404072902</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>40.61746628515233</v>
       </c>
       <c r="I4" t="n">
-        <v>20.94310772443613</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>346.3869398507595</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>226.4976123977393</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.7681569906779</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>303.9530049144607</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>217.6364591749281</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>75.90496054965102</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.77875716132786</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.092834328777952e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>-1.48015990967661e-12</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.171461559822819e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.028261402505088e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-1.171461559822822e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>384.4721492652006</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>453.7122424932249</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>198.560797075695</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>55.87423440419181</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35585,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>291.8458072502408</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>245.9177694853264</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>322.3705304098916</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295325</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>55.96455263125056</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3825725.317053812</v>
+        <v>3827485.847356596</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>275.6006602165983</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>84.2225297323299</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>104.1375486291684</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>69.25160695998082</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>88.01624809068271</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>122.7433563196737</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>71.67037196991713</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>193.2852664785254</v>
+        <v>74.55681854024962</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576176</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784715</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>86.24032515900458</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856562</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000767</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605716112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881292</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>31.26260713376563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>161.0175085755505</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819374</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018841</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053461</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>42.71572132711237</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
-        <v>38.61213096654769</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>404.8710673258088</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>397.9255665766054</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>386.8935204620059</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3240.532559253283</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2987.002082527119</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2655.939195183548</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2303.170539913434</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2303.170539913434</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>2303.170539913434</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,49 +4412,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>953.2602595377767</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>784.3240766098698</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>634.2074371975341</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>486.294343615141</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4043961172306</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>171.7015594919496</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4518,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368016</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X4" t="n">
-        <v>1134.908724368016</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>1134.908724368016</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>3091.331964934574</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2717.866206673495</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D8" t="n">
-        <v>1012.316163281156</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="E8" t="n">
-        <v>1012.316163281156</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="F8" t="n">
-        <v>601.3302584915489</v>
+        <v>141.8220341496073</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1914.135768168901</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1914.135768168901</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.71859813194</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,64 +5023,64 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356202</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232843</v>
+        <v>489.836033045444</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408911</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429806</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578604</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378163</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172276</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135315</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237297</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093767</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,7 +5588,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273902</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5664,22 +5664,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188011</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,13 +6621,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290589</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.309241249041</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400697</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121627</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121627</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121627</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121627</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270426</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138398</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6961,22 +6961,22 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7004,16 +7004,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C37" t="n">
-        <v>390.823249958218</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.7519863413023</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2407.960931088798</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2188.359466111739</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1899.284239455937</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1644.59975125005</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1355.182581213089</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.193030315072</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.400451171542</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>60.19363748756459</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891675</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038485</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194399</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.229103921944</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>105.8997516911</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
-        <v>142.4141550350969</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>638347.4380250134</v>
+        <v>638347.4380250133</v>
       </c>
     </row>
     <row r="11">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176762</v>
+      </c>
+      <c r="C2" t="n">
+        <v>800515.7256176756</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.725617676</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176759</v>
-      </c>
       <c r="E2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977557</v>
@@ -26340,19 +26340,19 @@
         <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977558</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355121</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184256</v>
+        <v>13606.80811184267</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26444,13 +26444,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184288</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-728956.8035545042</v>
+        <v>-728956.8035545038</v>
       </c>
       <c r="C6" t="n">
-        <v>599787.9421730887</v>
+        <v>599787.9421730883</v>
       </c>
       <c r="D6" t="n">
-        <v>599787.9421730887</v>
+        <v>599787.9421730884</v>
       </c>
       <c r="E6" t="n">
-        <v>346478.755700294</v>
+        <v>346791.3970292148</v>
       </c>
       <c r="F6" t="n">
-        <v>671891.217507649</v>
+        <v>672203.8588365704</v>
       </c>
       <c r="G6" t="n">
-        <v>671891.2175076497</v>
+        <v>672203.8588365703</v>
       </c>
       <c r="H6" t="n">
-        <v>671891.2175076489</v>
+        <v>672203.8588365704</v>
       </c>
       <c r="I6" t="n">
-        <v>671891.217507649</v>
+        <v>672203.8588365703</v>
       </c>
       <c r="J6" t="n">
-        <v>454360.0151103716</v>
+        <v>454672.656439293</v>
       </c>
       <c r="K6" t="n">
-        <v>671891.2175076491</v>
+        <v>672203.8588365702</v>
       </c>
       <c r="L6" t="n">
-        <v>671891.2175076491</v>
+        <v>672203.8588365704</v>
       </c>
       <c r="M6" t="n">
-        <v>586836.1895721368</v>
+        <v>587148.8309010586</v>
       </c>
       <c r="N6" t="n">
-        <v>671891.2175076493</v>
+        <v>672203.8588365703</v>
       </c>
       <c r="O6" t="n">
-        <v>671891.2175076491</v>
+        <v>672203.8588365705</v>
       </c>
       <c r="P6" t="n">
-        <v>671891.2175076491</v>
+        <v>672203.8588365704</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>19.00710417072213</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>119.6954404072902</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>40.61746628515233</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>217.2713913766102</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>277.2566436803248</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>226.4976123977393</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>94.3554362891111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>217.6364591749281</v>
+        <v>336.3649071132038</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>75.90496054965102</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-5.832667682170723e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,19 +28143,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.515321201850384e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-5.832667682170723e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.48015990967661e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.171461559822819e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.028261402505088e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-5.832667682170723e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.171461559822822e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043702</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295325</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902381</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
